--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_1_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_1_sawtooth_01_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,69 +571,71 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.34000000000005</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1486808311392055</v>
+        <v>0.02122328812890018</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2280015025529975</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.09594376953620641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.295927361208101e-10</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>3.475777875882608</v>
+        <v>5.223519391165876</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-1.2471992058582764, 8.198754957623493]</t>
+          <t>[0.9180771413965978, 9.528961640935155]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.1479245378290501</v>
+        <v>0.01777101687945337</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1479245378290501</v>
+        <v>0.01777101687945337</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.220158107700541</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-4.1007375578389285, 1.6604213424378473]</t>
+          <t>[-2.7170531058073895, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.4037903967580263</v>
+        <v>0.008607579257601028</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4037903967580263</v>
+        <v>0.008607579257601028</v>
       </c>
       <c r="S2" t="n">
-        <v>12.99649080311452</v>
+        <v>12.10044248540324</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.502308957277664, 15.490672648951369]</t>
+          <t>[9.500468631848591, 14.70041633895788]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>4.338298298298309</v>
+        <v>5.461461461461461</v>
       </c>
       <c r="X2" t="n">
-        <v>-5.903663663663675</v>
+        <v>1.409409409409407</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.58026026026029</v>
+        <v>9.513513513513516</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2900000000002</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001053037531314471</v>
+        <v>0.00784715576651529</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001263959651301042</v>
+        <v>0.07875072427122859</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.699882882047588</v>
+        <v>4.178233688246032</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.1903973339618172, 9.20936843013336]</t>
+          <t>[1.1169320894784374, 7.239535287013627]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001545830959075012</v>
+        <v>0.007644942468026716</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003091661918150024</v>
+        <v>0.01528988493605343</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6289474781961548</v>
+        <v>-1.58494764505431</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, -0.012578949563923025]</t>
+          <t>[-2.6038425597320805, -0.5660527303765397]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0455341489546639</v>
+        <v>0.002409833044479726</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0910682979093278</v>
+        <v>0.004819666088959451</v>
       </c>
       <c r="S3" t="n">
-        <v>13.24847909091</v>
+        <v>12.8335951030887</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.412665152016046, 15.084293029803945]</t>
+          <t>[10.974823063598429, 14.692367142578973]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.331331331331349</v>
+        <v>5.72108108108111</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04662662662662376</v>
+        <v>2.043243243243256</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.616036036036073</v>
+        <v>9.398918918918962</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_1_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_1_sawtooth_01_.xlsx
@@ -577,65 +577,65 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02122328812890018</v>
+        <v>0.01100046884134631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09594376953620641</v>
+        <v>0.02580755153395029</v>
       </c>
       <c r="I2" t="n">
-        <v>9.295927361208101e-10</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.223519391165876</v>
+        <v>6.144380094267882</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.9180771413965978, 9.528961640935155]</t>
+          <t>[1.1506343955659055, 11.13812579296986]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.01777101687945337</v>
+        <v>0.01625042434282875</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01777101687945337</v>
+        <v>0.01625042434282875</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.937158232844157</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.7170531058073895, -0.4025263860455386]</t>
+          <t>[-2.943474197958004, -0.9308422677303092]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.008607579257601028</v>
+        <v>0.0002101962608462848</v>
       </c>
       <c r="R2" t="n">
-        <v>0.008607579257601028</v>
+        <v>0.0004203925216925697</v>
       </c>
       <c r="S2" t="n">
-        <v>12.10044248540324</v>
+        <v>13.85911726015011</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.500468631848591, 14.70041633895788]</t>
+          <t>[11.084124837177683, 16.63410968312254]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.461461461461461</v>
+        <v>6.782782782782784</v>
       </c>
       <c r="X2" t="n">
-        <v>1.409409409409407</v>
+        <v>3.259259259259261</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.513513513513516</v>
+        <v>10.30630630630631</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.68000000000011</v>
+        <v>23.59000000000025</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00784715576651529</v>
+        <v>0.0002016087649279186</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07875072427122859</v>
+        <v>0.002318057972939688</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.178233688246032</v>
+        <v>5.500342980462664</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.1169320894784374, 7.239535287013627]</t>
+          <t>[1.9784121388763651, 9.022273822048962]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.007644942468026716</v>
+        <v>0.002316684160943216</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01528988493605343</v>
+        <v>0.004633368321886433</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.58494764505431</v>
+        <v>-0.6541053773240009</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6038425597320805, -0.5660527303765397]</t>
+          <t>[-1.2578949563923096, -0.0503157982556921]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.002409833044479726</v>
+        <v>0.03383291161246516</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004819666088959451</v>
+        <v>0.03383291161246516</v>
       </c>
       <c r="S3" t="n">
-        <v>12.8335951030887</v>
+        <v>13.22729427358797</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.974823063598429, 14.692367142578973]</t>
+          <t>[11.386020956816775, 15.068567590359162]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.72108108108111</v>
+        <v>2.455815815815843</v>
       </c>
       <c r="X3" t="n">
-        <v>2.043243243243256</v>
+        <v>0.1889089089089113</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.398918918918962</v>
+        <v>4.722722722722774</v>
       </c>
     </row>
   </sheetData>
